--- a/biology/Botanique/Thesium_linophyllon/Thesium_linophyllon.xlsx
+++ b/biology/Botanique/Thesium_linophyllon/Thesium_linophyllon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thésium à feuilles de lin, Thésion à feuilles de lin
 Le Thésium à feuilles de lin ou Thésion à feuilles de lin (Thesium linophyllon) est une espèce de plantes de la famille des Santalacées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La période de floraison du thésium à feuille de lin se situe entre juin et août.
 C'est une plante vivace de 15 à 30 cm, avec une tige de 2-4 mm d'épaisseur. Ses feuilles sont linéaires-lancéolées avec une largeur n’excédant pas 5 mm.
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, il est principalement présent dans les Alpes (Savoie) et dans les Vosges. Il pousse à proximité des pâturages et n'est pas considéré comme une espèce menacée.
 </t>
@@ -575,7 +591,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Thesium linophyllon subsp. linophyllon L., 1753
 Thesium linophyllon subsp. montanum (Ehrh. ex Hoffm.) Celak., 1871 - syn. Thesium bavarum Schrank, 1786</t>
